--- a/NonlinearReport/活頁簿2.xlsx
+++ b/NonlinearReport/活頁簿2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Story Drifts" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="111">
   <si>
     <t>TABLE:  Story Drifts</t>
   </si>
@@ -69,6 +69,9 @@
     <t>EQX</t>
   </si>
   <si>
+    <t>0SPECX Max</t>
+  </si>
+  <si>
     <t>1.0DL + 0.5LL Max</t>
   </si>
   <si>
@@ -168,6 +171,72 @@
     <t>RSN125_FRIULI.A_A-TMZ270-0.772 Min</t>
   </si>
   <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-1.029 Max</t>
+  </si>
+  <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-1.029 Min</t>
+  </si>
+  <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-1.5 Max</t>
+  </si>
+  <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-1.5 Min</t>
+  </si>
+  <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-2 Max</t>
+  </si>
+  <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-2 Min</t>
+  </si>
+  <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-2.5 Max</t>
+  </si>
+  <si>
+    <t>RSN125_FRIULI.A_A-TMZ270-2.5 Min</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-0.2 Max</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-0.2 Min</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-0.5 Max</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-0.5 Min</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-0.772 Max</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-0.772 Min</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-1.029 Max</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-1.029 Min</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-1.5 Max</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-1.5 Min</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-2 Max</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-2 Min</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-2.5 Max</t>
+  </si>
+  <si>
+    <t>RSN169_IMPVALL.H_H-DLT262-2.5 Min</t>
+  </si>
+  <si>
     <t>EQV</t>
   </si>
   <si>
@@ -226,6 +295,60 @@
   </si>
   <si>
     <t>USS62</t>
+  </si>
+  <si>
+    <t>SPECXF Max</t>
+  </si>
+  <si>
+    <t>SPECXF Min</t>
+  </si>
+  <si>
+    <t>USS68S Max</t>
+  </si>
+  <si>
+    <t>USS68S Min</t>
+  </si>
+  <si>
+    <t>USS69S Max</t>
+  </si>
+  <si>
+    <t>USS69S Min</t>
+  </si>
+  <si>
+    <t>USS72S Max</t>
+  </si>
+  <si>
+    <t>USS72S Min</t>
+  </si>
+  <si>
+    <t>USS73S Max</t>
+  </si>
+  <si>
+    <t>USS73S Min</t>
+  </si>
+  <si>
+    <t>USS76S Max</t>
+  </si>
+  <si>
+    <t>USS76S Min</t>
+  </si>
+  <si>
+    <t>USS77S Max</t>
+  </si>
+  <si>
+    <t>USS77S Min</t>
+  </si>
+  <si>
+    <t>USS80S Max</t>
+  </si>
+  <si>
+    <t>USS80S Min</t>
+  </si>
+  <si>
+    <t>USS81S Max</t>
+  </si>
+  <si>
+    <t>USS81S Min</t>
   </si>
   <si>
     <t>4F</t>
@@ -655,14 +778,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="8" width="8.625" customWidth="1"/>
@@ -811,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.0430000000000001E-3</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -837,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>8.1119999999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -863,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -889,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>1.4706E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -915,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.137E-3</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -941,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>7.7970000000000001E-3</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -967,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8.3239999999999998E-3</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -993,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1.8938E-2</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -1019,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4.9569999999999996E-3</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -1045,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.7957000000000001E-2</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1071,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>1.1387E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1097,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>3.669E-3</v>
+        <v>9.0310000000000008E-3</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1123,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3.6120000000000002E-3</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1149,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>5.7600000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1175,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>5.5999999999999995E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1201,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>1.441E-3</v>
+        <v>3.3E-4</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1227,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>1.4E-3</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -1253,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>2.2239999999999998E-3</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1279,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>2.1020000000000001E-3</v>
+        <v>1.312E-3</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1305,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>2.8040000000000001E-3</v>
+        <v>1.2750000000000001E-3</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1331,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>2.6740000000000002E-3</v>
+        <v>1.7489999999999999E-3</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1357,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>3.6830000000000001E-3</v>
+        <v>1.6980000000000001E-3</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -1383,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>3.6819999999999999E-3</v>
+        <v>2.532E-3</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1409,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>4.8609999999999999E-3</v>
+        <v>2.3110000000000001E-3</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1435,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>4.1099999999999999E-3</v>
+        <v>2.9979999999999998E-3</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -1461,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>5.3680000000000004E-3</v>
+        <v>3.1099999999999999E-3</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -1487,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>3.8189999999999999E-3</v>
+        <v>3.6410000000000001E-3</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1513,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>7.6900000000000004E-4</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -1539,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>4.8000000000000001E-4</v>
+        <v>4.5399999999999998E-4</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -1565,7 +1688,7 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>1.9239999999999999E-3</v>
+        <v>2.8299999999999999E-4</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -1591,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1349999999999999E-3</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -1617,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>2.8990000000000001E-3</v>
+        <v>7.0799999999999997E-4</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -1643,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>1.668E-3</v>
+        <v>1.753E-3</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1669,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1.0939999999999999E-3</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -1695,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2.3349999999999998E-3</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -1721,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1.451E-3</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -1747,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3.2929999999999999E-3</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -1773,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>1.407E-3</v>
+        <v>1.7149999999999999E-3</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -1799,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>1.407E-3</v>
+        <v>4.6420000000000003E-3</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -1825,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>1.407E-3</v>
+        <v>2.0439999999999998E-3</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -1851,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>1.407E-3</v>
+        <v>6.051E-3</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -1877,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>4.2200000000000001E-4</v>
+        <v>2.4229999999999998E-3</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -1903,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>4.2200000000000001E-4</v>
+        <v>3.2499999999999999E-4</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -1929,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>4.2200000000000001E-4</v>
+        <v>3.21E-4</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -1955,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>4.2200000000000001E-4</v>
+        <v>8.1300000000000003E-4</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -1981,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>1.407E-3</v>
+        <v>8.03E-4</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -2007,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>1.407E-3</v>
+        <v>1.256E-3</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -2033,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>1.407E-3</v>
+        <v>1.2409999999999999E-3</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -2059,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>1.407E-3</v>
+        <v>1.6739999999999999E-3</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -2085,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>4.2200000000000001E-4</v>
+        <v>1.6540000000000001E-3</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -2111,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>4.2200000000000001E-4</v>
+        <v>2.4380000000000001E-3</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -2137,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>4.2200000000000001E-4</v>
+        <v>2.4069999999999999E-3</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -2163,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>4.2200000000000001E-4</v>
+        <v>3.1089999999999998E-3</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -2180,16 +2303,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
         <v>67</v>
       </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>3.0920000000000001E-3</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -2201,21 +2324,21 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4.1180000000000001E-3</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -2227,21 +2350,21 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62">
-        <v>2.2009999999999998E-3</v>
+        <v>3.333E-3</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -2253,15 +2376,15 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -2279,21 +2402,21 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1.269E-2</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -2305,15 +2428,15 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -2331,21 +2454,21 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66">
-        <v>2.1975000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -2357,21 +2480,21 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -2383,21 +2506,21 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68">
-        <v>1.2474000000000001E-2</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E68">
         <v>4</v>
@@ -2409,21 +2532,21 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -2435,21 +2558,21 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70">
-        <v>1.4248E-2</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -2461,21 +2584,21 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -2487,21 +2610,21 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72">
-        <v>2.6979999999999999E-3</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -2513,21 +2636,21 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -2539,21 +2662,21 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -2565,21 +2688,21 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75">
-        <v>1.3878E-2</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -2591,21 +2714,21 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76">
-        <v>7.45E-4</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -2617,21 +2740,21 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77">
-        <v>8.9300000000000002E-4</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -2643,21 +2766,21 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78">
-        <v>1.861E-3</v>
+        <v>1.407E-3</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -2669,21 +2792,21 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79">
-        <v>2.2330000000000002E-3</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -2695,21 +2818,21 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80">
-        <v>2.8739999999999998E-3</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -2721,21 +2844,21 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81">
-        <v>3.473E-3</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2747,21 +2870,21 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82">
-        <v>3.5799999999999998E-3</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -2773,21 +2896,21 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83">
-        <v>4.542E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E83">
         <v>4</v>
@@ -2799,21 +2922,21 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84">
-        <v>4.5570000000000003E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -2825,21 +2948,21 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85">
-        <v>6.5009999999999998E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2851,21 +2974,21 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86">
-        <v>6.1079999999999997E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -2877,21 +3000,21 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87">
-        <v>7.8510000000000003E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -2903,21 +3026,21 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88">
-        <v>7.8969999999999995E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -2929,21 +3052,21 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89">
-        <v>8.9800000000000001E-3</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -2955,21 +3078,21 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90">
-        <v>9.7199999999999999E-4</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -2981,21 +3104,21 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91">
-        <v>7.1400000000000001E-4</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -3007,21 +3130,21 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92">
-        <v>2.431E-3</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -3033,21 +3156,21 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93">
-        <v>1.784E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -3059,21 +3182,21 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94">
-        <v>3.8319999999999999E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -3085,21 +3208,21 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95">
-        <v>2.4099999999999998E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -3111,21 +3234,21 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -3137,21 +3260,21 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -3163,21 +3286,21 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -3189,21 +3312,21 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -3215,21 +3338,21 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100">
-        <v>2.2009999999999998E-3</v>
+        <v>4.35E-4</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -3241,21 +3364,21 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101">
-        <v>2.2009999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -3272,16 +3395,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102">
-        <v>2.2009999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -3298,10 +3421,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -3324,16 +3447,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
       </c>
       <c r="D104">
-        <v>6.6E-4</v>
+        <v>1.519E-3</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -3350,16 +3473,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105">
-        <v>6.6E-4</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -3376,16 +3499,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106">
-        <v>6.6E-4</v>
+        <v>1.3335E-2</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -3402,16 +3525,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107">
-        <v>6.6E-4</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>4</v>
@@ -3428,16 +3551,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108">
-        <v>2.2009999999999998E-3</v>
+        <v>7.5139999999999998E-3</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -3454,16 +3577,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109">
-        <v>2.2009999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -3480,16 +3603,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
       <c r="D110">
-        <v>2.2009999999999998E-3</v>
+        <v>1.3073E-2</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -3506,16 +3629,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111">
-        <v>2.2009999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -3532,16 +3655,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
       <c r="D112">
-        <v>6.6E-4</v>
+        <v>1.7420000000000001E-3</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -3558,16 +3681,16 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113">
-        <v>6.6E-4</v>
+        <v>1.3284000000000001E-2</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -3584,16 +3707,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114">
-        <v>6.6E-4</v>
+        <v>2.418E-3</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -3610,16 +3733,16 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115">
-        <v>6.6E-4</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -3636,10 +3759,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -3657,21 +3780,21 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1.2034E-2</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -3683,21 +3806,21 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118">
-        <v>2.6719999999999999E-3</v>
+        <v>4.3899999999999999E-4</v>
       </c>
       <c r="E118">
         <v>4</v>
@@ -3709,21 +3832,21 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="E119">
         <v>4</v>
@@ -3735,21 +3858,21 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120">
-        <v>1.558E-2</v>
+        <v>1.098E-3</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -3761,21 +3884,21 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1.3179999999999999E-3</v>
       </c>
       <c r="E121">
         <v>4</v>
@@ -3787,21 +3910,21 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122">
-        <v>2.2341E-2</v>
+        <v>1.696E-3</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -3813,21 +3936,21 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>2.0339999999999998E-3</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -3839,21 +3962,21 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
       <c r="D124">
-        <v>1.5532000000000001E-2</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -3861,25 +3984,22 @@
       <c r="F124">
         <v>36</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
       <c r="H124">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>2.712E-3</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -3891,21 +4011,21 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
       <c r="D126">
-        <v>6.0599999999999998E-4</v>
+        <v>3.2550000000000001E-3</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -3917,21 +4037,21 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127">
-        <v>4.9200000000000003E-4</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -3939,25 +4059,22 @@
       <c r="F127">
         <v>36</v>
       </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
       <c r="H127">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128">
-        <v>3.7789999999999998E-3</v>
+        <v>3.8010000000000001E-3</v>
       </c>
       <c r="E128">
         <v>4</v>
@@ -3969,21 +4086,21 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>5.2709999999999996E-3</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -3995,21 +4112,21 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
       <c r="D130">
-        <v>5.9170000000000004E-3</v>
+        <v>4.4749999999999998E-3</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -4021,21 +4138,21 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>6.3850000000000001E-3</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -4047,21 +4164,21 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
       </c>
       <c r="D132">
-        <v>6.8999999999999997E-4</v>
+        <v>5.7399999999999997E-4</v>
       </c>
       <c r="E132">
         <v>4</v>
@@ -4073,21 +4190,21 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
       </c>
       <c r="D133">
-        <v>9.9400000000000009E-4</v>
+        <v>4.2099999999999999E-4</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -4099,21 +4216,21 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
       <c r="D134">
-        <v>1.7240000000000001E-3</v>
+        <v>1.4350000000000001E-3</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -4125,21 +4242,21 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135">
-        <v>2.4840000000000001E-3</v>
+        <v>1.0529999999999999E-3</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -4151,21 +4268,21 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
       <c r="D136">
-        <v>2.6619999999999999E-3</v>
+        <v>2.2160000000000001E-3</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -4177,21 +4294,21 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
       </c>
       <c r="D137">
-        <v>3.908E-3</v>
+        <v>1.6260000000000001E-3</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -4203,21 +4320,21 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
       <c r="D138">
-        <v>3.467E-3</v>
+        <v>2.954E-3</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -4229,21 +4346,21 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139">
-        <v>5.2680000000000001E-3</v>
+        <v>2.1580000000000002E-3</v>
       </c>
       <c r="E139">
         <v>4</v>
@@ -4255,21 +4372,21 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140">
-        <v>5.0130000000000001E-3</v>
+        <v>4.4609999999999997E-3</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -4281,21 +4398,21 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141">
-        <v>7.639E-3</v>
+        <v>2.5049999999999998E-3</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -4307,21 +4424,21 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142">
-        <v>7.2329999999999998E-3</v>
+        <v>6.0520000000000001E-3</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -4333,21 +4450,21 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143">
-        <v>1.0014E-2</v>
+        <v>2.9359999999999998E-3</v>
       </c>
       <c r="E143">
         <v>4</v>
@@ -4359,21 +4476,21 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144">
-        <v>1.2648E-2</v>
+        <v>7.3229999999999996E-3</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -4385,21 +4502,21 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145">
-        <v>1.5748000000000002E-2</v>
+        <v>3.689E-3</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -4407,25 +4524,22 @@
       <c r="F145">
         <v>36</v>
       </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
       <c r="H145">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B146" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146">
-        <v>9.6199999999999996E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -4437,21 +4551,21 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147">
-        <v>8.5700000000000001E-4</v>
+        <v>4.46E-4</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -4463,21 +4577,21 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
       </c>
       <c r="D148">
-        <v>2.405E-3</v>
+        <v>1.0430000000000001E-3</v>
       </c>
       <c r="E148">
         <v>4</v>
@@ -4489,21 +4603,21 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
       <c r="D149">
-        <v>2.1419999999999998E-3</v>
+        <v>1.116E-3</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -4515,21 +4629,21 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
       <c r="D150">
-        <v>3.7390000000000001E-3</v>
+        <v>1.611E-3</v>
       </c>
       <c r="E150">
         <v>4</v>
@@ -4541,21 +4655,21 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
       <c r="D151">
-        <v>3.0179999999999998E-3</v>
+        <v>1.7229999999999999E-3</v>
       </c>
       <c r="E151">
         <v>4</v>
@@ -4567,21 +4681,21 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B152" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>2.147E-3</v>
       </c>
       <c r="E152">
         <v>4</v>
@@ -4593,21 +4707,21 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>2.2959999999999999E-3</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -4619,21 +4733,21 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>3.137E-3</v>
       </c>
       <c r="E154">
         <v>4</v>
@@ -4645,21 +4759,21 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B155" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>3.3310000000000002E-3</v>
       </c>
       <c r="E155">
         <v>4</v>
@@ -4671,21 +4785,21 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>2.6719999999999999E-3</v>
+        <v>4.3489999999999996E-3</v>
       </c>
       <c r="E156">
         <v>4</v>
@@ -4697,21 +4811,21 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157">
-        <v>2.6719999999999999E-3</v>
+        <v>4.1149999999999997E-3</v>
       </c>
       <c r="E157">
         <v>4</v>
@@ -4723,21 +4837,21 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>108</v>
+      </c>
+      <c r="B158" t="s">
         <v>68</v>
       </c>
-      <c r="B158" t="s">
-        <v>53</v>
-      </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158">
-        <v>2.6719999999999999E-3</v>
+        <v>5.7159999999999997E-3</v>
       </c>
       <c r="E158">
         <v>4</v>
@@ -4749,21 +4863,21 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B159" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159">
-        <v>2.6719999999999999E-3</v>
+        <v>4.725E-3</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -4775,21 +4889,21 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160">
-        <v>8.0199999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>4</v>
@@ -4801,21 +4915,21 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B161" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
       </c>
       <c r="D161">
-        <v>8.0199999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="E161">
         <v>4</v>
@@ -4827,21 +4941,21 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B162" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162">
-        <v>8.0199999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>4</v>
@@ -4853,21 +4967,21 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B163" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163">
-        <v>8.0199999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <v>4</v>
@@ -4879,21 +4993,21 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B164" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164">
-        <v>2.6719999999999999E-3</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E164">
         <v>4</v>
@@ -4905,21 +5019,21 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B165" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165">
-        <v>2.6719999999999999E-3</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -4931,21 +5045,21 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166">
-        <v>2.6719999999999999E-3</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E166">
         <v>4</v>
@@ -4957,21 +5071,21 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167">
-        <v>2.6719999999999999E-3</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E167">
         <v>4</v>
@@ -4983,21 +5097,21 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B168" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
       </c>
       <c r="D168">
-        <v>8.0199999999999998E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E168">
         <v>4</v>
@@ -5009,21 +5123,21 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B169" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169">
-        <v>8.0199999999999998E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E169">
         <v>4</v>
@@ -5035,21 +5149,21 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B170" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170">
-        <v>8.0199999999999998E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E170">
         <v>4</v>
@@ -5061,21 +5175,21 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B171" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171">
-        <v>8.0199999999999998E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E171">
         <v>4</v>
@@ -5087,21 +5201,21 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E172">
         <v>4</v>
@@ -5113,21 +5227,21 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -5139,21 +5253,21 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
       </c>
       <c r="D174">
-        <v>1.9789999999999999E-3</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E174">
         <v>4</v>
@@ -5165,21 +5279,21 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>2.2009999999999998E-3</v>
       </c>
       <c r="E175">
         <v>4</v>
@@ -5191,21 +5305,21 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
       </c>
       <c r="D176">
-        <v>1.264E-2</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E176">
         <v>4</v>
@@ -5217,21 +5331,21 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E177">
         <v>4</v>
@@ -5243,21 +5357,21 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178">
-        <v>4.2079999999999999E-3</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E178">
         <v>4</v>
@@ -5269,21 +5383,21 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E179">
         <v>4</v>
@@ -5295,21 +5409,21 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B180" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180">
-        <v>1.2635E-2</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -5321,21 +5435,21 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -5347,21 +5461,21 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E182">
         <v>4</v>
@@ -5373,21 +5487,21 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183">
-        <v>3.993E-3</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E183">
         <v>4</v>
@@ -5399,21 +5513,21 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B184" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -5425,21 +5539,21 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185">
-        <v>2.395E-3</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E185">
         <v>4</v>
@@ -5451,21 +5565,21 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E186">
         <v>4</v>
@@ -5477,21 +5591,21 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
       </c>
       <c r="D187">
-        <v>1.292E-3</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E187">
         <v>4</v>
@@ -5503,21 +5617,21 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B188" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188">
-        <v>6.1399999999999996E-4</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E188">
         <v>4</v>
@@ -5529,21 +5643,21 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
       </c>
       <c r="D189">
-        <v>6.87E-4</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -5555,21 +5669,21 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
       </c>
       <c r="D190">
-        <v>1.536E-3</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E190">
         <v>4</v>
@@ -5581,21 +5695,21 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
       </c>
       <c r="D191">
-        <v>1.7179999999999999E-3</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E191">
         <v>4</v>
@@ -5607,21 +5721,21 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
       </c>
       <c r="D192">
-        <v>2.3709999999999998E-3</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E192">
         <v>4</v>
@@ -5633,21 +5747,21 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193">
-        <v>2.6540000000000001E-3</v>
+        <v>2.1120000000000002E-3</v>
       </c>
       <c r="E193">
         <v>4</v>
@@ -5659,21 +5773,21 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B194" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194">
-        <v>3.0170000000000002E-3</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E194">
         <v>4</v>
@@ -5685,21 +5799,21 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B195" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195">
-        <v>3.5439999999999998E-3</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E195">
         <v>4</v>
@@ -5711,21 +5825,21 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B196" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
       </c>
       <c r="D196">
-        <v>4.2560000000000002E-3</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E196">
         <v>4</v>
@@ -5737,21 +5851,21 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B197" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
       <c r="D197">
-        <v>5.1050000000000002E-3</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="E197">
         <v>4</v>
@@ -5763,21 +5877,21 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B198" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
       <c r="D198">
-        <v>6.1939999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -5789,21 +5903,21 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
       </c>
       <c r="D199">
-        <v>6.9839999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E199">
         <v>4</v>
@@ -5815,21 +5929,21 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B200" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
       </c>
       <c r="D200">
-        <v>8.1340000000000006E-3</v>
+        <v>2.6719999999999999E-3</v>
       </c>
       <c r="E200">
         <v>4</v>
@@ -5841,21 +5955,21 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B201" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
       </c>
       <c r="D201">
-        <v>1.2087000000000001E-2</v>
+        <v>1.817E-3</v>
       </c>
       <c r="E201">
         <v>4</v>
@@ -5867,21 +5981,21 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
       <c r="D202">
-        <v>6.5899999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="E202">
         <v>4</v>
@@ -5893,21 +6007,21 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B203" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
       </c>
       <c r="D203">
-        <v>5.6599999999999999E-4</v>
+        <v>1.6024E-2</v>
       </c>
       <c r="E203">
         <v>4</v>
@@ -5919,21 +6033,21 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204">
-        <v>1.647E-3</v>
+        <v>0</v>
       </c>
       <c r="E204">
         <v>4</v>
@@ -5945,21 +6059,21 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B205" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205">
-        <v>1.4159999999999999E-3</v>
+        <v>1.5472E-2</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -5971,21 +6085,21 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B206" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
       <c r="D206">
-        <v>2.5430000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E206">
         <v>4</v>
@@ -5997,21 +6111,21 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207">
-        <v>2.091E-3</v>
+        <v>1.5942999999999999E-2</v>
       </c>
       <c r="E207">
         <v>4</v>
@@ -6023,15 +6137,15 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -6049,21 +6163,21 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B209" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>4.9100000000000001E-4</v>
       </c>
       <c r="E209">
         <v>4</v>
@@ -6075,21 +6189,21 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B210" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>4.3800000000000002E-4</v>
       </c>
       <c r="E210">
         <v>4</v>
@@ -6101,21 +6215,21 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B211" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>3.4819999999999999E-3</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -6127,21 +6241,21 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B212" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212">
-        <v>1.9789999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>4</v>
@@ -6153,21 +6267,21 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213">
-        <v>1.9789999999999999E-3</v>
+        <v>5.7720000000000002E-3</v>
       </c>
       <c r="E213">
         <v>4</v>
@@ -6179,21 +6293,21 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214">
-        <v>1.9789999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E214">
         <v>4</v>
@@ -6205,21 +6319,21 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215">
-        <v>1.9789999999999999E-3</v>
+        <v>4.0700000000000003E-4</v>
       </c>
       <c r="E215">
         <v>4</v>
@@ -6231,21 +6345,21 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216">
-        <v>5.9400000000000002E-4</v>
+        <v>5.8600000000000004E-4</v>
       </c>
       <c r="E216">
         <v>4</v>
@@ -6257,21 +6371,21 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B217" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217">
-        <v>5.9400000000000002E-4</v>
+        <v>1.0169999999999999E-3</v>
       </c>
       <c r="E217">
         <v>4</v>
@@ -6283,21 +6397,21 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B218" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218">
-        <v>5.9400000000000002E-4</v>
+        <v>1.4660000000000001E-3</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -6309,21 +6423,21 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B219" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219">
-        <v>5.9400000000000002E-4</v>
+        <v>1.57E-3</v>
       </c>
       <c r="E219">
         <v>4</v>
@@ -6335,21 +6449,21 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B220" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220">
-        <v>1.9789999999999999E-3</v>
+        <v>2.2629999999999998E-3</v>
       </c>
       <c r="E220">
         <v>4</v>
@@ -6361,21 +6475,21 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B221" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221">
-        <v>1.9789999999999999E-3</v>
+        <v>2.0929999999999998E-3</v>
       </c>
       <c r="E221">
         <v>4</v>
@@ -6387,21 +6501,21 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B222" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222">
-        <v>1.9789999999999999E-3</v>
+        <v>3.0170000000000002E-3</v>
       </c>
       <c r="E222">
         <v>4</v>
@@ -6413,21 +6527,21 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223">
-        <v>1.9789999999999999E-3</v>
+        <v>3.003E-3</v>
       </c>
       <c r="E223">
         <v>4</v>
@@ -6439,21 +6553,21 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B224" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224">
-        <v>5.9400000000000002E-4</v>
+        <v>4.5319999999999996E-3</v>
       </c>
       <c r="E224">
         <v>4</v>
@@ -6465,21 +6579,21 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B225" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
       </c>
       <c r="D225">
-        <v>5.9400000000000002E-4</v>
+        <v>3.9139999999999999E-3</v>
       </c>
       <c r="E225">
         <v>4</v>
@@ -6491,21 +6605,21 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B226" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226">
-        <v>5.9400000000000002E-4</v>
+        <v>6.084E-3</v>
       </c>
       <c r="E226">
         <v>4</v>
@@ -6517,39 +6631,4303 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>109</v>
+      </c>
+      <c r="B227" t="s">
+        <v>40</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227">
+        <v>4.9329999999999999E-3</v>
+      </c>
+      <c r="E227">
+        <v>4</v>
+      </c>
+      <c r="F227">
+        <v>36</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>109</v>
+      </c>
+      <c r="B228" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>7.5680000000000001E-3</v>
+      </c>
+      <c r="E228">
+        <v>4</v>
+      </c>
+      <c r="F228">
+        <v>36</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>109</v>
+      </c>
+      <c r="B229" t="s">
+        <v>42</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <v>5.6800000000000004E-4</v>
+      </c>
+      <c r="E229">
+        <v>4</v>
+      </c>
+      <c r="F229">
+        <v>36</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>109</v>
+      </c>
+      <c r="B230" t="s">
+        <v>43</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230">
+        <v>5.0600000000000005E-4</v>
+      </c>
+      <c r="E230">
+        <v>4</v>
+      </c>
+      <c r="F230">
+        <v>36</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>109</v>
+      </c>
+      <c r="B231" t="s">
+        <v>44</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <v>1.42E-3</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+      <c r="F231">
+        <v>36</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>109</v>
+      </c>
+      <c r="B232" t="s">
+        <v>45</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>1.2639999999999999E-3</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+      <c r="F232">
+        <v>36</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>109</v>
+      </c>
+      <c r="B233" t="s">
+        <v>46</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>2.1919999999999999E-3</v>
+      </c>
+      <c r="E233">
+        <v>4</v>
+      </c>
+      <c r="F233">
+        <v>36</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>109</v>
+      </c>
+      <c r="B234" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234">
+        <v>1.952E-3</v>
+      </c>
+      <c r="E234">
+        <v>4</v>
+      </c>
+      <c r="F234">
+        <v>36</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>109</v>
+      </c>
+      <c r="B235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235">
+        <v>2.9220000000000001E-3</v>
+      </c>
+      <c r="E235">
+        <v>4</v>
+      </c>
+      <c r="F235">
+        <v>36</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>109</v>
+      </c>
+      <c r="B236" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236">
+        <v>2.5960000000000002E-3</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>36</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>109</v>
+      </c>
+      <c r="B237" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237">
+        <v>4.3449999999999999E-3</v>
+      </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+      <c r="F237">
+        <v>36</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>109</v>
+      </c>
+      <c r="B238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>3.1979999999999999E-3</v>
+      </c>
+      <c r="E238">
+        <v>4</v>
+      </c>
+      <c r="F238">
+        <v>36</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>109</v>
+      </c>
+      <c r="B239" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239">
+        <v>5.9439999999999996E-3</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+      <c r="F239">
+        <v>36</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>109</v>
+      </c>
+      <c r="B240" t="s">
+        <v>53</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240">
+        <v>3.6380000000000002E-3</v>
+      </c>
+      <c r="E240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>36</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>109</v>
+      </c>
+      <c r="B241" t="s">
+        <v>54</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241">
+        <v>7.2389999999999998E-3</v>
+      </c>
+      <c r="E241">
+        <v>4</v>
+      </c>
+      <c r="F241">
+        <v>36</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>109</v>
+      </c>
+      <c r="B242" t="s">
+        <v>55</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242">
+        <v>4.496E-3</v>
+      </c>
+      <c r="E242">
+        <v>4</v>
+      </c>
+      <c r="F242">
+        <v>36</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>109</v>
+      </c>
+      <c r="B243" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243">
+        <v>4.7699999999999999E-4</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+      <c r="F243">
+        <v>36</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>109</v>
+      </c>
+      <c r="B244" t="s">
+        <v>57</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244">
+        <v>36</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>109</v>
+      </c>
+      <c r="B245" t="s">
+        <v>58</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>1.1919999999999999E-3</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="F245">
+        <v>36</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>109</v>
+      </c>
+      <c r="B246" t="s">
+        <v>59</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246">
+        <v>1.1789999999999999E-3</v>
+      </c>
+      <c r="E246">
+        <v>4</v>
+      </c>
+      <c r="F246">
+        <v>36</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>109</v>
+      </c>
+      <c r="B247" t="s">
+        <v>60</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="E247">
+        <v>4</v>
+      </c>
+      <c r="F247">
+        <v>36</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>109</v>
+      </c>
+      <c r="B248" t="s">
+        <v>61</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248">
+        <v>1.82E-3</v>
+      </c>
+      <c r="E248">
+        <v>4</v>
+      </c>
+      <c r="F248">
+        <v>36</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>109</v>
+      </c>
+      <c r="B249" t="s">
+        <v>62</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <v>2.4529999999999999E-3</v>
+      </c>
+      <c r="E249">
+        <v>4</v>
+      </c>
+      <c r="F249">
+        <v>36</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>109</v>
+      </c>
+      <c r="B250" t="s">
+        <v>63</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250">
+        <v>2.4260000000000002E-3</v>
+      </c>
+      <c r="E250">
+        <v>4</v>
+      </c>
+      <c r="F250">
+        <v>36</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>109</v>
+      </c>
+      <c r="B251" t="s">
+        <v>64</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>3.4459999999999998E-3</v>
+      </c>
+      <c r="E251">
+        <v>4</v>
+      </c>
+      <c r="F251">
+        <v>36</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>109</v>
+      </c>
+      <c r="B252" t="s">
+        <v>65</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252">
+        <v>3.5370000000000002E-3</v>
+      </c>
+      <c r="E252">
+        <v>4</v>
+      </c>
+      <c r="F252">
+        <v>36</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>109</v>
+      </c>
+      <c r="B253" t="s">
+        <v>66</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253">
+        <v>4.5789999999999997E-3</v>
+      </c>
+      <c r="E253">
+        <v>4</v>
+      </c>
+      <c r="F253">
+        <v>36</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>109</v>
+      </c>
+      <c r="B254" t="s">
+        <v>67</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254">
+        <v>4.3319999999999999E-3</v>
+      </c>
+      <c r="E254">
+        <v>4</v>
+      </c>
+      <c r="F254">
+        <v>36</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>109</v>
+      </c>
+      <c r="B255" t="s">
+        <v>68</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255">
+        <v>5.9750000000000003E-3</v>
+      </c>
+      <c r="E255">
+        <v>4</v>
+      </c>
+      <c r="F255">
+        <v>36</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>109</v>
+      </c>
+      <c r="B256" t="s">
         <v>69</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>4.9199999999999999E-3</v>
+      </c>
+      <c r="E256">
+        <v>4</v>
+      </c>
+      <c r="F256">
+        <v>36</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>109</v>
+      </c>
+      <c r="B257" t="s">
+        <v>70</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>4</v>
+      </c>
+      <c r="F257">
+        <v>36</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>109</v>
+      </c>
+      <c r="B258" t="s">
+        <v>71</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>4</v>
+      </c>
+      <c r="F258">
+        <v>36</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>109</v>
+      </c>
+      <c r="B259" t="s">
+        <v>72</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>4</v>
+      </c>
+      <c r="F259">
+        <v>36</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>109</v>
+      </c>
+      <c r="B260" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>4</v>
+      </c>
+      <c r="F260">
+        <v>36</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>109</v>
+      </c>
+      <c r="B261" t="s">
+        <v>74</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E261">
+        <v>4</v>
+      </c>
+      <c r="F261">
+        <v>36</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>109</v>
+      </c>
+      <c r="B262" t="s">
+        <v>75</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E262">
+        <v>4</v>
+      </c>
+      <c r="F262">
+        <v>36</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>109</v>
+      </c>
+      <c r="B263" t="s">
+        <v>76</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+      <c r="F263">
+        <v>36</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>109</v>
+      </c>
+      <c r="B264" t="s">
+        <v>77</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264">
+        <v>36</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>109</v>
+      </c>
+      <c r="B265" t="s">
+        <v>78</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <v>36</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>109</v>
+      </c>
+      <c r="B266" t="s">
+        <v>79</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E266">
+        <v>4</v>
+      </c>
+      <c r="F266">
+        <v>36</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>109</v>
+      </c>
+      <c r="B267" t="s">
+        <v>80</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E267">
+        <v>4</v>
+      </c>
+      <c r="F267">
+        <v>36</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>109</v>
+      </c>
+      <c r="B268" t="s">
+        <v>81</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E268">
+        <v>4</v>
+      </c>
+      <c r="F268">
+        <v>36</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>109</v>
+      </c>
+      <c r="B269" t="s">
+        <v>82</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E269">
+        <v>4</v>
+      </c>
+      <c r="F269">
+        <v>36</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>109</v>
+      </c>
+      <c r="B270" t="s">
+        <v>83</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270">
+        <v>36</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>109</v>
+      </c>
+      <c r="B271" t="s">
+        <v>84</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E271">
+        <v>4</v>
+      </c>
+      <c r="F271">
+        <v>36</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>109</v>
+      </c>
+      <c r="B272" t="s">
+        <v>85</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="E272">
+        <v>4</v>
+      </c>
+      <c r="F272">
+        <v>36</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>109</v>
+      </c>
+      <c r="B273" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E273">
+        <v>4</v>
+      </c>
+      <c r="F273">
+        <v>36</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>109</v>
+      </c>
+      <c r="B274" t="s">
+        <v>87</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E274">
+        <v>4</v>
+      </c>
+      <c r="F274">
+        <v>36</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>109</v>
+      </c>
+      <c r="B275" t="s">
+        <v>88</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E275">
+        <v>4</v>
+      </c>
+      <c r="F275">
+        <v>36</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>109</v>
+      </c>
+      <c r="B276" t="s">
+        <v>89</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="E276">
+        <v>4</v>
+      </c>
+      <c r="F276">
+        <v>36</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>109</v>
+      </c>
+      <c r="B277" t="s">
+        <v>90</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E277">
+        <v>4</v>
+      </c>
+      <c r="F277">
+        <v>36</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>109</v>
+      </c>
+      <c r="B278" t="s">
+        <v>91</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E278">
+        <v>4</v>
+      </c>
+      <c r="F278">
+        <v>36</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>109</v>
+      </c>
+      <c r="B279" t="s">
+        <v>92</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E279">
+        <v>4</v>
+      </c>
+      <c r="F279">
+        <v>36</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>109</v>
+      </c>
+      <c r="B280" t="s">
+        <v>93</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
+      <c r="F280">
+        <v>36</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>109</v>
+      </c>
+      <c r="B281" t="s">
+        <v>94</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E281">
+        <v>4</v>
+      </c>
+      <c r="F281">
+        <v>36</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>109</v>
+      </c>
+      <c r="B282" t="s">
+        <v>95</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E282">
+        <v>4</v>
+      </c>
+      <c r="F282">
+        <v>36</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>109</v>
+      </c>
+      <c r="B283" t="s">
+        <v>96</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E283">
+        <v>4</v>
+      </c>
+      <c r="F283">
+        <v>36</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>109</v>
+      </c>
+      <c r="B284" t="s">
+        <v>97</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E284">
+        <v>4</v>
+      </c>
+      <c r="F284">
+        <v>36</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>109</v>
+      </c>
+      <c r="B285" t="s">
+        <v>98</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E285">
+        <v>4</v>
+      </c>
+      <c r="F285">
+        <v>36</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>109</v>
+      </c>
+      <c r="B286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E286">
+        <v>4</v>
+      </c>
+      <c r="F286">
+        <v>36</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>109</v>
+      </c>
+      <c r="B287" t="s">
+        <v>100</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E287">
+        <v>4</v>
+      </c>
+      <c r="F287">
+        <v>36</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>109</v>
+      </c>
+      <c r="B288" t="s">
+        <v>101</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+      <c r="F288">
+        <v>36</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>109</v>
+      </c>
+      <c r="B289" t="s">
+        <v>102</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E289">
+        <v>4</v>
+      </c>
+      <c r="F289">
+        <v>36</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>109</v>
+      </c>
+      <c r="B290" t="s">
+        <v>103</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290">
+        <v>2.526E-3</v>
+      </c>
+      <c r="E290">
+        <v>4</v>
+      </c>
+      <c r="F290">
+        <v>36</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>109</v>
+      </c>
+      <c r="B291" t="s">
+        <v>104</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E291">
+        <v>4</v>
+      </c>
+      <c r="F291">
+        <v>36</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>109</v>
+      </c>
+      <c r="B292" t="s">
+        <v>105</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+      <c r="F292">
+        <v>36</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>109</v>
+      </c>
+      <c r="B293" t="s">
+        <v>106</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293">
+        <v>36</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>109</v>
+      </c>
+      <c r="B294" t="s">
+        <v>107</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="E294">
+        <v>4</v>
+      </c>
+      <c r="F294">
+        <v>36</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>110</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>4</v>
+      </c>
+      <c r="F295">
+        <v>36</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>110</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>4</v>
+      </c>
+      <c r="F296">
+        <v>36</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>110</v>
+      </c>
+      <c r="B297" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E297">
+        <v>4</v>
+      </c>
+      <c r="F297">
+        <v>36</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>110</v>
+      </c>
+      <c r="B298" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="E298">
+        <v>4</v>
+      </c>
+      <c r="F298">
+        <v>36</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>110</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>4</v>
+      </c>
+      <c r="F299">
+        <v>36</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>110</v>
+      </c>
+      <c r="B300" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300">
+        <v>1.2768E-2</v>
+      </c>
+      <c r="E300">
+        <v>4</v>
+      </c>
+      <c r="F300">
+        <v>36</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>110</v>
+      </c>
+      <c r="B301" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>4</v>
+      </c>
+      <c r="F301">
+        <v>36</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>110</v>
+      </c>
+      <c r="B302" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302">
+        <v>1.2976E-2</v>
+      </c>
+      <c r="E302">
+        <v>4</v>
+      </c>
+      <c r="F302">
+        <v>36</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>110</v>
+      </c>
+      <c r="B303" t="s">
+        <v>19</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>4</v>
+      </c>
+      <c r="F303">
+        <v>36</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>110</v>
+      </c>
+      <c r="B304" t="s">
+        <v>20</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304">
+        <v>1.2756999999999999E-2</v>
+      </c>
+      <c r="E304">
+        <v>4</v>
+      </c>
+      <c r="F304">
+        <v>36</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>110</v>
+      </c>
+      <c r="B305" t="s">
+        <v>21</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>4</v>
+      </c>
+      <c r="F305">
+        <v>36</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>110</v>
+      </c>
+      <c r="B306" t="s">
+        <v>22</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306">
+        <v>3.797E-3</v>
+      </c>
+      <c r="E306">
+        <v>4</v>
+      </c>
+      <c r="F306">
+        <v>36</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>110</v>
+      </c>
+      <c r="B307" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>3.4580000000000001E-3</v>
+      </c>
+      <c r="E307">
+        <v>4</v>
+      </c>
+      <c r="F307">
+        <v>36</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>110</v>
+      </c>
+      <c r="B308" t="s">
+        <v>24</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>4</v>
+      </c>
+      <c r="F308">
+        <v>36</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>110</v>
+      </c>
+      <c r="B309" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309">
+        <v>2.31E-3</v>
+      </c>
+      <c r="E309">
+        <v>4</v>
+      </c>
+      <c r="F309">
+        <v>36</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>110</v>
+      </c>
+      <c r="B310" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>4</v>
+      </c>
+      <c r="F310">
+        <v>36</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>110</v>
+      </c>
+      <c r="B311" t="s">
+        <v>27</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="E311">
+        <v>4</v>
+      </c>
+      <c r="F311">
+        <v>36</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>110</v>
+      </c>
+      <c r="B312" t="s">
+        <v>28</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312">
+        <v>3.6299999999999999E-4</v>
+      </c>
+      <c r="E312">
+        <v>4</v>
+      </c>
+      <c r="F312">
+        <v>36</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>110</v>
+      </c>
+      <c r="B313" t="s">
+        <v>29</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313">
+        <v>4.06E-4</v>
+      </c>
+      <c r="E313">
+        <v>4</v>
+      </c>
+      <c r="F313">
+        <v>36</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>110</v>
+      </c>
+      <c r="B314" t="s">
+        <v>30</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314">
+        <v>9.0600000000000001E-4</v>
+      </c>
+      <c r="E314">
+        <v>4</v>
+      </c>
+      <c r="F314">
+        <v>36</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>110</v>
+      </c>
+      <c r="B315" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315">
+        <v>1.0139999999999999E-3</v>
+      </c>
+      <c r="E315">
+        <v>4</v>
+      </c>
+      <c r="F315">
+        <v>36</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>110</v>
+      </c>
+      <c r="B316" t="s">
+        <v>32</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <v>1.3990000000000001E-3</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+      <c r="F316">
+        <v>36</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>110</v>
+      </c>
+      <c r="B317" t="s">
+        <v>33</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317">
+        <v>1.565E-3</v>
+      </c>
+      <c r="E317">
+        <v>4</v>
+      </c>
+      <c r="F317">
+        <v>36</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>110</v>
+      </c>
+      <c r="B318" t="s">
+        <v>34</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>1.8649999999999999E-3</v>
+      </c>
+      <c r="E318">
+        <v>4</v>
+      </c>
+      <c r="F318">
+        <v>36</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>110</v>
+      </c>
+      <c r="B319" t="s">
+        <v>35</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>2.0860000000000002E-3</v>
+      </c>
+      <c r="E319">
+        <v>4</v>
+      </c>
+      <c r="F319">
+        <v>36</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>110</v>
+      </c>
+      <c r="B320" t="s">
+        <v>36</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320">
+        <v>2.7070000000000002E-3</v>
+      </c>
+      <c r="E320">
+        <v>4</v>
+      </c>
+      <c r="F320">
+        <v>36</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>110</v>
+      </c>
+      <c r="B321" t="s">
+        <v>37</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321">
+        <v>3.0530000000000002E-3</v>
+      </c>
+      <c r="E321">
+        <v>4</v>
+      </c>
+      <c r="F321">
+        <v>36</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>110</v>
+      </c>
+      <c r="B322" t="s">
+        <v>38</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <v>3.3050000000000002E-3</v>
+      </c>
+      <c r="E322">
+        <v>4</v>
+      </c>
+      <c r="F322">
+        <v>36</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>110</v>
+      </c>
+      <c r="B323" t="s">
+        <v>39</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323">
+        <v>4.0610000000000004E-3</v>
+      </c>
+      <c r="E323">
+        <v>4</v>
+      </c>
+      <c r="F323">
+        <v>36</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>110</v>
+      </c>
+      <c r="B324" t="s">
+        <v>40</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>4.1619999999999999E-3</v>
+      </c>
+      <c r="E324">
+        <v>4</v>
+      </c>
+      <c r="F324">
+        <v>36</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>110</v>
+      </c>
+      <c r="B325" t="s">
+        <v>41</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325">
+        <v>5.0390000000000001E-3</v>
+      </c>
+      <c r="E325">
+        <v>4</v>
+      </c>
+      <c r="F325">
+        <v>36</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>110</v>
+      </c>
+      <c r="B326" t="s">
+        <v>42</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="E326">
+        <v>4</v>
+      </c>
+      <c r="F326">
+        <v>36</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>110</v>
+      </c>
+      <c r="B327" t="s">
+        <v>43</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="E327">
+        <v>4</v>
+      </c>
+      <c r="F327">
+        <v>36</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>110</v>
+      </c>
+      <c r="B328" t="s">
+        <v>44</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328">
+        <v>9.7199999999999999E-4</v>
+      </c>
+      <c r="E328">
+        <v>4</v>
+      </c>
+      <c r="F328">
+        <v>36</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>110</v>
+      </c>
+      <c r="B329" t="s">
+        <v>45</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>8.3600000000000005E-4</v>
+      </c>
+      <c r="E329">
+        <v>4</v>
+      </c>
+      <c r="F329">
+        <v>36</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>110</v>
+      </c>
+      <c r="B330" t="s">
+        <v>46</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>1.5009999999999999E-3</v>
+      </c>
+      <c r="E330">
+        <v>4</v>
+      </c>
+      <c r="F330">
+        <v>36</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>110</v>
+      </c>
+      <c r="B331" t="s">
+        <v>47</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="E331">
+        <v>4</v>
+      </c>
+      <c r="F331">
+        <v>36</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>110</v>
+      </c>
+      <c r="B332" t="s">
+        <v>48</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332">
+        <v>2.0010000000000002E-3</v>
+      </c>
+      <c r="E332">
+        <v>4</v>
+      </c>
+      <c r="F332">
+        <v>36</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>110</v>
+      </c>
+      <c r="B333" t="s">
+        <v>49</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>1.7179999999999999E-3</v>
+      </c>
+      <c r="E333">
+        <v>4</v>
+      </c>
+      <c r="F333">
+        <v>36</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>110</v>
+      </c>
+      <c r="B334" t="s">
+        <v>50</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>2.9190000000000002E-3</v>
+      </c>
+      <c r="E334">
+        <v>4</v>
+      </c>
+      <c r="F334">
+        <v>36</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>110</v>
+      </c>
+      <c r="B335" t="s">
+        <v>51</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335">
+        <v>2.2039999999999998E-3</v>
+      </c>
+      <c r="E335">
+        <v>4</v>
+      </c>
+      <c r="F335">
+        <v>36</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>110</v>
+      </c>
+      <c r="B336" t="s">
+        <v>52</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>3.9230000000000003E-3</v>
+      </c>
+      <c r="E336">
+        <v>4</v>
+      </c>
+      <c r="F336">
+        <v>36</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>110</v>
+      </c>
+      <c r="B337" t="s">
+        <v>53</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337">
+        <v>2.4589999999999998E-3</v>
+      </c>
+      <c r="E337">
+        <v>4</v>
+      </c>
+      <c r="F337">
+        <v>36</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>110</v>
+      </c>
+      <c r="B338" t="s">
+        <v>54</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338">
+        <v>4.8630000000000001E-3</v>
+      </c>
+      <c r="E338">
+        <v>4</v>
+      </c>
+      <c r="F338">
+        <v>36</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>110</v>
+      </c>
+      <c r="B339" t="s">
+        <v>55</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339">
+        <v>3.094E-3</v>
+      </c>
+      <c r="E339">
+        <v>4</v>
+      </c>
+      <c r="F339">
+        <v>36</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>110</v>
+      </c>
+      <c r="B340" t="s">
+        <v>56</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="E340">
+        <v>4</v>
+      </c>
+      <c r="F340">
+        <v>36</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>110</v>
+      </c>
+      <c r="B341" t="s">
+        <v>57</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341">
+        <v>3.3100000000000002E-4</v>
+      </c>
+      <c r="E341">
+        <v>4</v>
+      </c>
+      <c r="F341">
+        <v>36</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>110</v>
+      </c>
+      <c r="B342" t="s">
+        <v>58</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342">
+        <v>9.3899999999999995E-4</v>
+      </c>
+      <c r="E342">
+        <v>4</v>
+      </c>
+      <c r="F342">
+        <v>36</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>110</v>
+      </c>
+      <c r="B343" t="s">
+        <v>59</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343">
+        <v>8.2799999999999996E-4</v>
+      </c>
+      <c r="E343">
+        <v>4</v>
+      </c>
+      <c r="F343">
+        <v>36</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>110</v>
+      </c>
+      <c r="B344" t="s">
+        <v>60</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344">
+        <v>1.449E-3</v>
+      </c>
+      <c r="E344">
+        <v>4</v>
+      </c>
+      <c r="F344">
+        <v>36</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>110</v>
+      </c>
+      <c r="B345" t="s">
+        <v>61</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345">
+        <v>1.279E-3</v>
+      </c>
+      <c r="E345">
+        <v>4</v>
+      </c>
+      <c r="F345">
+        <v>36</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>110</v>
+      </c>
+      <c r="B346" t="s">
+        <v>62</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>1.9319999999999999E-3</v>
+      </c>
+      <c r="E346">
+        <v>4</v>
+      </c>
+      <c r="F346">
+        <v>36</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>110</v>
+      </c>
+      <c r="B347" t="s">
+        <v>63</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>1.704E-3</v>
+      </c>
+      <c r="E347">
+        <v>4</v>
+      </c>
+      <c r="F347">
+        <v>36</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>110</v>
+      </c>
+      <c r="B348" t="s">
+        <v>64</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348">
+        <v>2.7929999999999999E-3</v>
+      </c>
+      <c r="E348">
+        <v>4</v>
+      </c>
+      <c r="F348">
+        <v>36</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>110</v>
+      </c>
+      <c r="B349" t="s">
+        <v>65</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>2.4320000000000001E-3</v>
+      </c>
+      <c r="E349">
+        <v>4</v>
+      </c>
+      <c r="F349">
+        <v>36</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>110</v>
+      </c>
+      <c r="B350" t="s">
         <v>66</v>
       </c>
-      <c r="C227" t="s">
-        <v>6</v>
-      </c>
-      <c r="D227">
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350">
+        <v>3.6819999999999999E-3</v>
+      </c>
+      <c r="E350">
+        <v>4</v>
+      </c>
+      <c r="F350">
+        <v>36</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>110</v>
+      </c>
+      <c r="B351" t="s">
+        <v>67</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351">
+        <v>3.1089999999999998E-3</v>
+      </c>
+      <c r="E351">
+        <v>4</v>
+      </c>
+      <c r="F351">
+        <v>36</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>110</v>
+      </c>
+      <c r="B352" t="s">
+        <v>68</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352">
+        <v>4.653E-3</v>
+      </c>
+      <c r="E352">
+        <v>4</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>110</v>
+      </c>
+      <c r="B353" t="s">
+        <v>69</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353">
+        <v>3.7439999999999999E-3</v>
+      </c>
+      <c r="E353">
+        <v>4</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>110</v>
+      </c>
+      <c r="B354" t="s">
+        <v>70</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>4</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>110</v>
+      </c>
+      <c r="B355" t="s">
+        <v>71</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>4</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>110</v>
+      </c>
+      <c r="B356" t="s">
+        <v>72</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>4</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>110</v>
+      </c>
+      <c r="B357" t="s">
+        <v>73</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>4</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>110</v>
+      </c>
+      <c r="B358" t="s">
+        <v>74</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E358">
+        <v>4</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>110</v>
+      </c>
+      <c r="B359" t="s">
+        <v>75</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E359">
+        <v>4</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>110</v>
+      </c>
+      <c r="B360" t="s">
+        <v>76</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E360">
+        <v>4</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>110</v>
+      </c>
+      <c r="B361" t="s">
+        <v>77</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E361">
+        <v>4</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>110</v>
+      </c>
+      <c r="B362" t="s">
+        <v>78</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362">
         <v>5.9400000000000002E-4</v>
       </c>
-      <c r="E227">
-        <v>4</v>
-      </c>
-      <c r="F227">
-        <v>36</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227">
+      <c r="E362">
+        <v>4</v>
+      </c>
+      <c r="F362">
+        <v>36</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>110</v>
+      </c>
+      <c r="B363" t="s">
+        <v>79</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="E363">
+        <v>4</v>
+      </c>
+      <c r="F363">
+        <v>36</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>110</v>
+      </c>
+      <c r="B364" t="s">
+        <v>80</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="E364">
+        <v>4</v>
+      </c>
+      <c r="F364">
+        <v>36</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>110</v>
+      </c>
+      <c r="B365" t="s">
+        <v>81</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="E365">
+        <v>4</v>
+      </c>
+      <c r="F365">
+        <v>36</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>110</v>
+      </c>
+      <c r="B366" t="s">
+        <v>82</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E366">
+        <v>4</v>
+      </c>
+      <c r="F366">
+        <v>36</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>110</v>
+      </c>
+      <c r="B367" t="s">
+        <v>83</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E367">
+        <v>4</v>
+      </c>
+      <c r="F367">
+        <v>36</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>110</v>
+      </c>
+      <c r="B368" t="s">
+        <v>84</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E368">
+        <v>4</v>
+      </c>
+      <c r="F368">
+        <v>36</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>110</v>
+      </c>
+      <c r="B369" t="s">
+        <v>85</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369">
+        <v>1.9789999999999999E-3</v>
+      </c>
+      <c r="E369">
+        <v>4</v>
+      </c>
+      <c r="F369">
+        <v>36</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>110</v>
+      </c>
+      <c r="B370" t="s">
+        <v>86</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="E370">
+        <v>4</v>
+      </c>
+      <c r="F370">
+        <v>36</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>110</v>
+      </c>
+      <c r="B371" t="s">
+        <v>87</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="E371">
+        <v>4</v>
+      </c>
+      <c r="F371">
+        <v>36</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>110</v>
+      </c>
+      <c r="B372" t="s">
+        <v>88</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="E372">
+        <v>4</v>
+      </c>
+      <c r="F372">
+        <v>36</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>110</v>
+      </c>
+      <c r="B373" t="s">
+        <v>89</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="E373">
+        <v>4</v>
+      </c>
+      <c r="F373">
+        <v>36</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>110</v>
+      </c>
+      <c r="B374" t="s">
+        <v>90</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E374">
+        <v>4</v>
+      </c>
+      <c r="F374">
+        <v>36</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>110</v>
+      </c>
+      <c r="B375" t="s">
+        <v>91</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E375">
+        <v>4</v>
+      </c>
+      <c r="F375">
+        <v>36</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>110</v>
+      </c>
+      <c r="B376" t="s">
+        <v>92</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E376">
+        <v>4</v>
+      </c>
+      <c r="F376">
+        <v>36</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>110</v>
+      </c>
+      <c r="B377" t="s">
+        <v>93</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E377">
+        <v>4</v>
+      </c>
+      <c r="F377">
+        <v>36</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>110</v>
+      </c>
+      <c r="B378" t="s">
+        <v>94</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E378">
+        <v>4</v>
+      </c>
+      <c r="F378">
+        <v>36</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>110</v>
+      </c>
+      <c r="B379" t="s">
+        <v>95</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E379">
+        <v>4</v>
+      </c>
+      <c r="F379">
+        <v>36</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>110</v>
+      </c>
+      <c r="B380" t="s">
+        <v>96</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E380">
+        <v>4</v>
+      </c>
+      <c r="F380">
+        <v>36</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>110</v>
+      </c>
+      <c r="B381" t="s">
+        <v>97</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E381">
+        <v>4</v>
+      </c>
+      <c r="F381">
+        <v>36</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>110</v>
+      </c>
+      <c r="B382" t="s">
+        <v>98</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E382">
+        <v>4</v>
+      </c>
+      <c r="F382">
+        <v>36</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>110</v>
+      </c>
+      <c r="B383" t="s">
+        <v>99</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E383">
+        <v>4</v>
+      </c>
+      <c r="F383">
+        <v>36</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>110</v>
+      </c>
+      <c r="B384" t="s">
+        <v>100</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E384">
+        <v>4</v>
+      </c>
+      <c r="F384">
+        <v>36</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>110</v>
+      </c>
+      <c r="B385" t="s">
+        <v>101</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E385">
+        <v>4</v>
+      </c>
+      <c r="F385">
+        <v>36</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>110</v>
+      </c>
+      <c r="B386" t="s">
+        <v>102</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E386">
+        <v>4</v>
+      </c>
+      <c r="F386">
+        <v>36</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>110</v>
+      </c>
+      <c r="B387" t="s">
+        <v>103</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387">
+        <v>1.918E-3</v>
+      </c>
+      <c r="E387">
+        <v>4</v>
+      </c>
+      <c r="F387">
+        <v>36</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>110</v>
+      </c>
+      <c r="B388" t="s">
+        <v>104</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E388">
+        <v>4</v>
+      </c>
+      <c r="F388">
+        <v>36</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>110</v>
+      </c>
+      <c r="B389" t="s">
+        <v>105</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E389">
+        <v>4</v>
+      </c>
+      <c r="F389">
+        <v>36</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>110</v>
+      </c>
+      <c r="B390" t="s">
+        <v>106</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E390">
+        <v>4</v>
+      </c>
+      <c r="F390">
+        <v>36</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>110</v>
+      </c>
+      <c r="B391" t="s">
+        <v>107</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E391">
+        <v>4</v>
+      </c>
+      <c r="F391">
+        <v>36</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
